--- a/Подсчёт хронологических событий.xlsx
+++ b/Подсчёт хронологических событий.xlsx
@@ -16,6 +16,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>век</t>
+  </si>
+  <si>
+    <t>События</t>
+  </si>
+  <si>
+    <t>основание мира гоблинобогом</t>
+  </si>
+  <si>
+    <t>создание гоблинов</t>
+  </si>
+  <si>
+    <t>разделение гоблинов на рассы</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> первая война гоблинов</t>
+  </si>
+  <si>
+    <t>развитие народов до космического уровня</t>
+  </si>
+  <si>
+    <t>открытие космоса и других планет</t>
+  </si>
+  <si>
+    <t>перелёт белой рассы гоблинов на Мидгард землю</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +101,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +141,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +181,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +363,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="48.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Подсчёт хронологических событий.xlsx
+++ b/Подсчёт хронологических событий.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>век</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>перелёт белой рассы гоблинов на Мидгард землю</t>
+  </si>
+  <si>
+    <t>прелёт тёмной рассы на планету фаэтон</t>
+  </si>
+  <si>
+    <t>война гоблинов на планете файэтон и мидгард земле</t>
+  </si>
+  <si>
+    <t>падение планеты Леи на мидгард землю</t>
+  </si>
+  <si>
+    <t>падения уровня жизни на мидгард земле до примитевного</t>
+  </si>
+  <si>
+    <t>великий потоп на мидгарде</t>
   </si>
 </sst>
 </file>
@@ -366,12 +381,12 @@
   <dimension ref="B3:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -442,25 +457,40 @@
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
